--- a/biology/Botanique/Begonia_dregei/Begonia_dregei.xlsx
+++ b/biology/Botanique/Begonia_dregei/Begonia_dregei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia dregei est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Afrique du Sud. L'espèce fait partie de la section Augustia. Elle a été décrite en 1836 par Christoph Friedrich Otto (1783-1856) et Albert Gottfried Dietrich (1795-1856). L'épithète spécifique dregei signifie « de Dregei », en hommage aux travaux de l'horticulteur et explorateur allemand Jean François (ou Johann Franz) Drège (1794-1881)[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia dregei est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Afrique du Sud. L'espèce fait partie de la section Augustia. Elle a été décrite en 1836 par Christoph Friedrich Otto (1783-1856) et Albert Gottfried Dietrich (1795-1856). L'épithète spécifique dregei signifie « de Dregei », en hommage aux travaux de l'horticulteur et explorateur allemand Jean François (ou Johann Franz) Drège (1794-1881).
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Vue d'ensemble
@@ -545,9 +559,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Afrique du Sud[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire du pays suivant : Afrique du Sud.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (6 février 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (6 février 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Begonia dregei var. caffra DC.
 variété Begonia dregei var. dregei
 variété Begonia dregei var. macbethii L.H. Bailey
